--- a/tables/reference.xlsx
+++ b/tables/reference.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24628"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="2224" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00D907DB-C541-42EC-AA16-89E7F1917140}"/>
+  <xr:revisionPtr revIDLastSave="2798" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81EC037D-0A15-49AC-A3F0-2DEFF2D9013A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="I" sheetId="1" r:id="rId1"/>
@@ -1606,7 +1606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25ED0B2-1846-452E-A45E-4EC4A3C3AD66}">
   <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -6234,10 +6234,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5447FF42-4598-4DCE-9B6D-6EB09310144C}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6642,6 +6642,1906 @@
         <v>8170</v>
       </c>
     </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>1961</v>
+      </c>
+      <c r="B21">
+        <v>4303</v>
+      </c>
+      <c r="C21">
+        <v>4337</v>
+      </c>
+      <c r="D21">
+        <v>1345</v>
+      </c>
+      <c r="E21">
+        <v>8930</v>
+      </c>
+      <c r="F21">
+        <v>3109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>5853</v>
+      </c>
+      <c r="B22">
+        <v>9715</v>
+      </c>
+      <c r="C22">
+        <v>2096</v>
+      </c>
+      <c r="D22">
+        <v>6826</v>
+      </c>
+      <c r="E22">
+        <v>173</v>
+      </c>
+      <c r="F22">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2351</v>
+      </c>
+      <c r="B23">
+        <v>2190</v>
+      </c>
+      <c r="C23">
+        <v>2950</v>
+      </c>
+      <c r="D23">
+        <v>9859</v>
+      </c>
+      <c r="E23">
+        <v>3300</v>
+      </c>
+      <c r="F23">
+        <v>3953</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>9267</v>
+      </c>
+      <c r="B24">
+        <v>7012</v>
+      </c>
+      <c r="C24">
+        <v>5695</v>
+      </c>
+      <c r="D24">
+        <v>1154</v>
+      </c>
+      <c r="E24">
+        <v>2780</v>
+      </c>
+      <c r="F24">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>4787</v>
+      </c>
+      <c r="B25">
+        <v>7013</v>
+      </c>
+      <c r="C25">
+        <v>1911</v>
+      </c>
+      <c r="D25">
+        <v>2616</v>
+      </c>
+      <c r="E25">
+        <v>5190</v>
+      </c>
+      <c r="F25">
+        <v>7027</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>5555</v>
+      </c>
+      <c r="B26">
+        <v>166</v>
+      </c>
+      <c r="C26">
+        <v>9981</v>
+      </c>
+      <c r="D26">
+        <v>800</v>
+      </c>
+      <c r="E26">
+        <v>1151</v>
+      </c>
+      <c r="F26">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>7282</v>
+      </c>
+      <c r="B27">
+        <v>1940</v>
+      </c>
+      <c r="C27">
+        <v>4244</v>
+      </c>
+      <c r="D27">
+        <v>9425</v>
+      </c>
+      <c r="E27">
+        <v>1041</v>
+      </c>
+      <c r="F27">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1329</v>
+      </c>
+      <c r="B28">
+        <v>2727</v>
+      </c>
+      <c r="C28">
+        <v>1238</v>
+      </c>
+      <c r="D28">
+        <v>2861</v>
+      </c>
+      <c r="E28">
+        <v>2885</v>
+      </c>
+      <c r="F28">
+        <v>6977</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>5171</v>
+      </c>
+      <c r="B29">
+        <v>6224</v>
+      </c>
+      <c r="C29">
+        <v>5923</v>
+      </c>
+      <c r="D29">
+        <v>7767</v>
+      </c>
+      <c r="E29">
+        <v>3640</v>
+      </c>
+      <c r="F29">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>2291</v>
+      </c>
+      <c r="B30">
+        <v>2165</v>
+      </c>
+      <c r="C30">
+        <v>6410</v>
+      </c>
+      <c r="D30">
+        <v>2373</v>
+      </c>
+      <c r="E30">
+        <v>2514</v>
+      </c>
+      <c r="F30">
+        <v>8006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>6934</v>
+      </c>
+      <c r="B31">
+        <v>5829</v>
+      </c>
+      <c r="C31">
+        <v>6538</v>
+      </c>
+      <c r="D31">
+        <v>3934</v>
+      </c>
+      <c r="E31">
+        <v>4267</v>
+      </c>
+      <c r="F31">
+        <v>8440</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>8539</v>
+      </c>
+      <c r="B32">
+        <v>8540</v>
+      </c>
+      <c r="C32">
+        <v>9382</v>
+      </c>
+      <c r="D32">
+        <v>34</v>
+      </c>
+      <c r="E32">
+        <v>7844</v>
+      </c>
+      <c r="F32">
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>4351</v>
+      </c>
+      <c r="B33">
+        <v>1066</v>
+      </c>
+      <c r="C33">
+        <v>9100</v>
+      </c>
+      <c r="D33">
+        <v>5953</v>
+      </c>
+      <c r="E33">
+        <v>2286</v>
+      </c>
+      <c r="F33">
+        <v>6481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>6331</v>
+      </c>
+      <c r="B34">
+        <v>7831</v>
+      </c>
+      <c r="C34">
+        <v>1991</v>
+      </c>
+      <c r="D34">
+        <v>1358</v>
+      </c>
+      <c r="E34">
+        <v>9616</v>
+      </c>
+      <c r="F34">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35">
+        <v>2257</v>
+      </c>
+      <c r="B35">
+        <v>7183</v>
+      </c>
+      <c r="C35">
+        <v>8053</v>
+      </c>
+      <c r="D35">
+        <v>2693</v>
+      </c>
+      <c r="E35">
+        <v>9629</v>
+      </c>
+      <c r="F35">
+        <v>5891</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>8318</v>
+      </c>
+      <c r="B36">
+        <v>9951</v>
+      </c>
+      <c r="C36">
+        <v>2602</v>
+      </c>
+      <c r="D36">
+        <v>8191</v>
+      </c>
+      <c r="E36">
+        <v>234</v>
+      </c>
+      <c r="F36">
+        <v>8751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>1710</v>
+      </c>
+      <c r="B37">
+        <v>7884</v>
+      </c>
+      <c r="C37">
+        <v>5327</v>
+      </c>
+      <c r="D37">
+        <v>6529</v>
+      </c>
+      <c r="E37">
+        <v>9324</v>
+      </c>
+      <c r="F37">
+        <v>7710</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38">
+        <v>6515</v>
+      </c>
+      <c r="B38">
+        <v>9931</v>
+      </c>
+      <c r="C38">
+        <v>4829</v>
+      </c>
+      <c r="D38">
+        <v>269</v>
+      </c>
+      <c r="E38">
+        <v>4186</v>
+      </c>
+      <c r="F38">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39">
+        <v>1724</v>
+      </c>
+      <c r="B39">
+        <v>8268</v>
+      </c>
+      <c r="C39">
+        <v>867</v>
+      </c>
+      <c r="D39">
+        <v>4232</v>
+      </c>
+      <c r="E39">
+        <v>6710</v>
+      </c>
+      <c r="F39">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40">
+        <v>5780</v>
+      </c>
+      <c r="B40">
+        <v>8575</v>
+      </c>
+      <c r="C40">
+        <v>2472</v>
+      </c>
+      <c r="D40">
+        <v>3884</v>
+      </c>
+      <c r="E40">
+        <v>5213</v>
+      </c>
+      <c r="F40">
+        <v>8896</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>7497</v>
+      </c>
+      <c r="B41">
+        <v>5054</v>
+      </c>
+      <c r="C41">
+        <v>4706</v>
+      </c>
+      <c r="D41">
+        <v>2270</v>
+      </c>
+      <c r="E41">
+        <v>1183</v>
+      </c>
+      <c r="F41">
+        <v>8139</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42">
+        <v>1516</v>
+      </c>
+      <c r="B42">
+        <v>9160</v>
+      </c>
+      <c r="C42">
+        <v>8992</v>
+      </c>
+      <c r="D42">
+        <v>5762</v>
+      </c>
+      <c r="E42">
+        <v>7202</v>
+      </c>
+      <c r="F42">
+        <v>7417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43">
+        <v>492</v>
+      </c>
+      <c r="B43">
+        <v>3288</v>
+      </c>
+      <c r="C43">
+        <v>5808</v>
+      </c>
+      <c r="D43">
+        <v>8209</v>
+      </c>
+      <c r="E43">
+        <v>7120</v>
+      </c>
+      <c r="F43">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44">
+        <v>7238</v>
+      </c>
+      <c r="B44">
+        <v>5840</v>
+      </c>
+      <c r="C44">
+        <v>3871</v>
+      </c>
+      <c r="D44">
+        <v>6807</v>
+      </c>
+      <c r="E44">
+        <v>7240</v>
+      </c>
+      <c r="F44">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45">
+        <v>2242</v>
+      </c>
+      <c r="B45">
+        <v>838</v>
+      </c>
+      <c r="C45">
+        <v>374</v>
+      </c>
+      <c r="D45">
+        <v>1658</v>
+      </c>
+      <c r="E45">
+        <v>9114</v>
+      </c>
+      <c r="F45">
+        <v>9357</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46">
+        <v>4534</v>
+      </c>
+      <c r="B46">
+        <v>9674</v>
+      </c>
+      <c r="C46">
+        <v>3479</v>
+      </c>
+      <c r="D46">
+        <v>3158</v>
+      </c>
+      <c r="E46">
+        <v>9139</v>
+      </c>
+      <c r="F46">
+        <v>8903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47">
+        <v>6426</v>
+      </c>
+      <c r="B47">
+        <v>8775</v>
+      </c>
+      <c r="C47">
+        <v>2485</v>
+      </c>
+      <c r="D47">
+        <v>3485</v>
+      </c>
+      <c r="E47">
+        <v>4172</v>
+      </c>
+      <c r="F47">
+        <v>7978</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48">
+        <v>80</v>
+      </c>
+      <c r="B48">
+        <v>7210</v>
+      </c>
+      <c r="C48">
+        <v>6627</v>
+      </c>
+      <c r="D48">
+        <v>7629</v>
+      </c>
+      <c r="E48">
+        <v>3310</v>
+      </c>
+      <c r="F48">
+        <v>6983</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49">
+        <v>630</v>
+      </c>
+      <c r="B49">
+        <v>393</v>
+      </c>
+      <c r="C49">
+        <v>3356</v>
+      </c>
+      <c r="D49">
+        <v>5718</v>
+      </c>
+      <c r="E49">
+        <v>1465</v>
+      </c>
+      <c r="F49">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50">
+        <v>9879</v>
+      </c>
+      <c r="B50">
+        <v>443</v>
+      </c>
+      <c r="C50">
+        <v>9975</v>
+      </c>
+      <c r="D50">
+        <v>4270</v>
+      </c>
+      <c r="E50">
+        <v>6189</v>
+      </c>
+      <c r="F50">
+        <v>8638</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51">
+        <v>9689</v>
+      </c>
+      <c r="B51">
+        <v>5839</v>
+      </c>
+      <c r="C51">
+        <v>2064</v>
+      </c>
+      <c r="D51">
+        <v>7588</v>
+      </c>
+      <c r="E51">
+        <v>2665</v>
+      </c>
+      <c r="F51">
+        <v>9573</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52">
+        <v>3863</v>
+      </c>
+      <c r="B52">
+        <v>409</v>
+      </c>
+      <c r="C52">
+        <v>7641</v>
+      </c>
+      <c r="D52">
+        <v>3184</v>
+      </c>
+      <c r="E52">
+        <v>7595</v>
+      </c>
+      <c r="F52">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53">
+        <v>8808</v>
+      </c>
+      <c r="B53">
+        <v>7572</v>
+      </c>
+      <c r="C53">
+        <v>8033</v>
+      </c>
+      <c r="D53">
+        <v>7365</v>
+      </c>
+      <c r="E53">
+        <v>4315</v>
+      </c>
+      <c r="F53">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54">
+        <v>7917</v>
+      </c>
+      <c r="B54">
+        <v>2592</v>
+      </c>
+      <c r="C54">
+        <v>6001</v>
+      </c>
+      <c r="D54">
+        <v>8214</v>
+      </c>
+      <c r="E54">
+        <v>2199</v>
+      </c>
+      <c r="F54">
+        <v>8942</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55">
+        <v>9296</v>
+      </c>
+      <c r="B55">
+        <v>6616</v>
+      </c>
+      <c r="C55">
+        <v>7851</v>
+      </c>
+      <c r="D55">
+        <v>98</v>
+      </c>
+      <c r="E55">
+        <v>4121</v>
+      </c>
+      <c r="F55">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56">
+        <v>5475</v>
+      </c>
+      <c r="B56">
+        <v>9580</v>
+      </c>
+      <c r="C56">
+        <v>6315</v>
+      </c>
+      <c r="D56">
+        <v>2491</v>
+      </c>
+      <c r="E56">
+        <v>4699</v>
+      </c>
+      <c r="F56">
+        <v>7816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57">
+        <v>3743</v>
+      </c>
+      <c r="B57">
+        <v>595</v>
+      </c>
+      <c r="C57">
+        <v>6860</v>
+      </c>
+      <c r="D57">
+        <v>4836</v>
+      </c>
+      <c r="E57">
+        <v>7309</v>
+      </c>
+      <c r="F57">
+        <v>8231</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58">
+        <v>8558</v>
+      </c>
+      <c r="B58">
+        <v>4496</v>
+      </c>
+      <c r="C58">
+        <v>7866</v>
+      </c>
+      <c r="D58">
+        <v>9592</v>
+      </c>
+      <c r="E58">
+        <v>2182</v>
+      </c>
+      <c r="F58">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59">
+        <v>8838</v>
+      </c>
+      <c r="B59">
+        <v>8486</v>
+      </c>
+      <c r="C59">
+        <v>8385</v>
+      </c>
+      <c r="D59">
+        <v>2852</v>
+      </c>
+      <c r="E59">
+        <v>3778</v>
+      </c>
+      <c r="F59">
+        <v>4711</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60">
+        <v>7797</v>
+      </c>
+      <c r="B60">
+        <v>6575</v>
+      </c>
+      <c r="C60">
+        <v>3027</v>
+      </c>
+      <c r="D60">
+        <v>3147</v>
+      </c>
+      <c r="E60">
+        <v>4661</v>
+      </c>
+      <c r="F60">
+        <v>8723</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61">
+        <v>920</v>
+      </c>
+      <c r="B61">
+        <v>768</v>
+      </c>
+      <c r="C61">
+        <v>7651</v>
+      </c>
+      <c r="D61">
+        <v>9039</v>
+      </c>
+      <c r="E61">
+        <v>1612</v>
+      </c>
+      <c r="F61">
+        <v>9204</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62">
+        <v>5615</v>
+      </c>
+      <c r="B62">
+        <v>2096</v>
+      </c>
+      <c r="C62">
+        <v>6811</v>
+      </c>
+      <c r="D62">
+        <v>2655</v>
+      </c>
+      <c r="E62">
+        <v>1034</v>
+      </c>
+      <c r="F62">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63">
+        <v>5435</v>
+      </c>
+      <c r="B63">
+        <v>6595</v>
+      </c>
+      <c r="C63">
+        <v>2331</v>
+      </c>
+      <c r="D63">
+        <v>7806</v>
+      </c>
+      <c r="E63">
+        <v>5281</v>
+      </c>
+      <c r="F63">
+        <v>2892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64">
+        <v>5909</v>
+      </c>
+      <c r="B64">
+        <v>6137</v>
+      </c>
+      <c r="C64">
+        <v>1524</v>
+      </c>
+      <c r="D64">
+        <v>6851</v>
+      </c>
+      <c r="E64">
+        <v>4150</v>
+      </c>
+      <c r="F64">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65">
+        <v>2642</v>
+      </c>
+      <c r="B65">
+        <v>2262</v>
+      </c>
+      <c r="C65">
+        <v>3396</v>
+      </c>
+      <c r="D65">
+        <v>3292</v>
+      </c>
+      <c r="E65">
+        <v>7689</v>
+      </c>
+      <c r="F65">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66">
+        <v>6356</v>
+      </c>
+      <c r="B66">
+        <v>1731</v>
+      </c>
+      <c r="C66">
+        <v>7313</v>
+      </c>
+      <c r="D66">
+        <v>841</v>
+      </c>
+      <c r="E66">
+        <v>471</v>
+      </c>
+      <c r="F66">
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67">
+        <v>280</v>
+      </c>
+      <c r="B67">
+        <v>6272</v>
+      </c>
+      <c r="C67">
+        <v>7920</v>
+      </c>
+      <c r="D67">
+        <v>9438</v>
+      </c>
+      <c r="E67">
+        <v>5218</v>
+      </c>
+      <c r="F67">
+        <v>5495</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68">
+        <v>1491</v>
+      </c>
+      <c r="B68">
+        <v>6469</v>
+      </c>
+      <c r="C68">
+        <v>7066</v>
+      </c>
+      <c r="D68">
+        <v>7070</v>
+      </c>
+      <c r="E68">
+        <v>548</v>
+      </c>
+      <c r="F68">
+        <v>4621</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69">
+        <v>7057</v>
+      </c>
+      <c r="B69">
+        <v>3267</v>
+      </c>
+      <c r="C69">
+        <v>8844</v>
+      </c>
+      <c r="D69">
+        <v>8918</v>
+      </c>
+      <c r="E69">
+        <v>255</v>
+      </c>
+      <c r="F69">
+        <v>9331</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70">
+        <v>650</v>
+      </c>
+      <c r="B70">
+        <v>7292</v>
+      </c>
+      <c r="C70">
+        <v>4375</v>
+      </c>
+      <c r="D70">
+        <v>1475</v>
+      </c>
+      <c r="E70">
+        <v>4416</v>
+      </c>
+      <c r="F70">
+        <v>3682</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71">
+        <v>7557</v>
+      </c>
+      <c r="B71">
+        <v>3327</v>
+      </c>
+      <c r="C71">
+        <v>5153</v>
+      </c>
+      <c r="D71">
+        <v>3339</v>
+      </c>
+      <c r="E71">
+        <v>3370</v>
+      </c>
+      <c r="F71">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72">
+        <v>4364</v>
+      </c>
+      <c r="B72">
+        <v>1257</v>
+      </c>
+      <c r="C72">
+        <v>9234</v>
+      </c>
+      <c r="D72">
+        <v>9519</v>
+      </c>
+      <c r="E72">
+        <v>1590</v>
+      </c>
+      <c r="F72">
+        <v>4960</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73">
+        <v>7697</v>
+      </c>
+      <c r="B73">
+        <v>4044</v>
+      </c>
+      <c r="C73">
+        <v>4387</v>
+      </c>
+      <c r="D73">
+        <v>6046</v>
+      </c>
+      <c r="E73">
+        <v>9317</v>
+      </c>
+      <c r="F73">
+        <v>7276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74">
+        <v>2722</v>
+      </c>
+      <c r="B74">
+        <v>1084</v>
+      </c>
+      <c r="C74">
+        <v>8734</v>
+      </c>
+      <c r="D74">
+        <v>3126</v>
+      </c>
+      <c r="E74">
+        <v>7406</v>
+      </c>
+      <c r="F74">
+        <v>9021</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75">
+        <v>3673</v>
+      </c>
+      <c r="B75">
+        <v>2390</v>
+      </c>
+      <c r="C75">
+        <v>4881</v>
+      </c>
+      <c r="D75">
+        <v>2217</v>
+      </c>
+      <c r="E75">
+        <v>46</v>
+      </c>
+      <c r="F75">
+        <v>2925</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76">
+        <v>9219</v>
+      </c>
+      <c r="B76">
+        <v>457</v>
+      </c>
+      <c r="C76">
+        <v>754</v>
+      </c>
+      <c r="D76">
+        <v>1679</v>
+      </c>
+      <c r="E76">
+        <v>9500</v>
+      </c>
+      <c r="F76">
+        <v>4639</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77">
+        <v>8598</v>
+      </c>
+      <c r="B77">
+        <v>4047</v>
+      </c>
+      <c r="C77">
+        <v>1272</v>
+      </c>
+      <c r="D77">
+        <v>1937</v>
+      </c>
+      <c r="E77">
+        <v>9800</v>
+      </c>
+      <c r="F77">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78">
+        <v>5105</v>
+      </c>
+      <c r="B78">
+        <v>9254</v>
+      </c>
+      <c r="C78">
+        <v>7472</v>
+      </c>
+      <c r="D78">
+        <v>5464</v>
+      </c>
+      <c r="E78">
+        <v>6159</v>
+      </c>
+      <c r="F78">
+        <v>4421</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79">
+        <v>3983</v>
+      </c>
+      <c r="B79">
+        <v>3625</v>
+      </c>
+      <c r="C79">
+        <v>2952</v>
+      </c>
+      <c r="D79">
+        <v>7376</v>
+      </c>
+      <c r="E79">
+        <v>6055</v>
+      </c>
+      <c r="F79">
+        <v>8605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80">
+        <v>5985</v>
+      </c>
+      <c r="B80">
+        <v>3977</v>
+      </c>
+      <c r="C80">
+        <v>4397</v>
+      </c>
+      <c r="D80">
+        <v>2115</v>
+      </c>
+      <c r="E80">
+        <v>462</v>
+      </c>
+      <c r="F80">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81">
+        <v>1218</v>
+      </c>
+      <c r="B81">
+        <v>2719</v>
+      </c>
+      <c r="C81">
+        <v>4467</v>
+      </c>
+      <c r="D81">
+        <v>2964</v>
+      </c>
+      <c r="E81">
+        <v>7325</v>
+      </c>
+      <c r="F81">
+        <v>8613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82">
+        <v>471</v>
+      </c>
+      <c r="B82">
+        <v>5971</v>
+      </c>
+      <c r="C82">
+        <v>7331</v>
+      </c>
+      <c r="D82">
+        <v>8223</v>
+      </c>
+      <c r="E82">
+        <v>190</v>
+      </c>
+      <c r="F82">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83">
+        <v>7347</v>
+      </c>
+      <c r="B83">
+        <v>865</v>
+      </c>
+      <c r="C83">
+        <v>242</v>
+      </c>
+      <c r="D83">
+        <v>1627</v>
+      </c>
+      <c r="E83">
+        <v>3011</v>
+      </c>
+      <c r="F83">
+        <v>4912</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84">
+        <v>484</v>
+      </c>
+      <c r="B84">
+        <v>1819</v>
+      </c>
+      <c r="C84">
+        <v>3424</v>
+      </c>
+      <c r="D84">
+        <v>5015</v>
+      </c>
+      <c r="E84">
+        <v>6430</v>
+      </c>
+      <c r="F84">
+        <v>6956</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85">
+        <v>3610</v>
+      </c>
+      <c r="B85">
+        <v>5225</v>
+      </c>
+      <c r="C85">
+        <v>6637</v>
+      </c>
+      <c r="D85">
+        <v>8044</v>
+      </c>
+      <c r="E85">
+        <v>9482</v>
+      </c>
+      <c r="F85">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86">
+        <v>6824</v>
+      </c>
+      <c r="B86">
+        <v>8276</v>
+      </c>
+      <c r="C86">
+        <v>9637</v>
+      </c>
+      <c r="D86">
+        <v>1013</v>
+      </c>
+      <c r="E86">
+        <v>2416</v>
+      </c>
+      <c r="F86">
+        <v>4012</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87">
+        <v>9836</v>
+      </c>
+      <c r="B87">
+        <v>1223</v>
+      </c>
+      <c r="C87">
+        <v>2735</v>
+      </c>
+      <c r="D87">
+        <v>4526</v>
+      </c>
+      <c r="E87">
+        <v>6010</v>
+      </c>
+      <c r="F87">
+        <v>7421</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88">
+        <v>3039</v>
+      </c>
+      <c r="B88">
+        <v>4923</v>
+      </c>
+      <c r="C88">
+        <v>6446</v>
+      </c>
+      <c r="D88">
+        <v>7968</v>
+      </c>
+      <c r="E88">
+        <v>9301</v>
+      </c>
+      <c r="F88">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89">
+        <v>6839</v>
+      </c>
+      <c r="B89">
+        <v>8286</v>
+      </c>
+      <c r="C89">
+        <v>9644</v>
+      </c>
+      <c r="D89">
+        <v>1025</v>
+      </c>
+      <c r="E89">
+        <v>2434</v>
+      </c>
+      <c r="F89">
+        <v>4024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90">
+        <v>301</v>
+      </c>
+      <c r="B90">
+        <v>1725</v>
+      </c>
+      <c r="C90">
+        <v>3949</v>
+      </c>
+      <c r="D90">
+        <v>4945</v>
+      </c>
+      <c r="E90">
+        <v>6497</v>
+      </c>
+      <c r="F90">
+        <v>7983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91">
+        <v>3827</v>
+      </c>
+      <c r="B91">
+        <v>5453</v>
+      </c>
+      <c r="C91">
+        <v>7096</v>
+      </c>
+      <c r="D91">
+        <v>8458</v>
+      </c>
+      <c r="E91">
+        <v>9848</v>
+      </c>
+      <c r="F91">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92">
+        <v>8081</v>
+      </c>
+      <c r="B92">
+        <v>9603</v>
+      </c>
+      <c r="C92">
+        <v>1090</v>
+      </c>
+      <c r="D92">
+        <v>2869</v>
+      </c>
+      <c r="E92">
+        <v>4612</v>
+      </c>
+      <c r="F92">
+        <v>6321</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93">
+        <v>2906</v>
+      </c>
+      <c r="B93">
+        <v>8455</v>
+      </c>
+      <c r="C93">
+        <v>9848</v>
+      </c>
+      <c r="D93">
+        <v>1742</v>
+      </c>
+      <c r="E93">
+        <v>3052</v>
+      </c>
+      <c r="F93">
+        <v>4974</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94">
+        <v>8701</v>
+      </c>
+      <c r="B94">
+        <v>568</v>
+      </c>
+      <c r="C94">
+        <v>2356</v>
+      </c>
+      <c r="D94">
+        <v>3832</v>
+      </c>
+      <c r="E94">
+        <v>5654</v>
+      </c>
+      <c r="F94">
+        <v>7480</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95">
+        <v>5031</v>
+      </c>
+      <c r="B95">
+        <v>6921</v>
+      </c>
+      <c r="C95">
+        <v>8469</v>
+      </c>
+      <c r="D95">
+        <v>316</v>
+      </c>
+      <c r="E95">
+        <v>2052</v>
+      </c>
+      <c r="F95">
+        <v>3848</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96">
+        <v>914</v>
+      </c>
+      <c r="B96">
+        <v>2742</v>
+      </c>
+      <c r="C96">
+        <v>4799</v>
+      </c>
+      <c r="D96">
+        <v>6567</v>
+      </c>
+      <c r="E96">
+        <v>8304</v>
+      </c>
+      <c r="F96">
+        <v>9881</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97">
+        <v>7534</v>
+      </c>
+      <c r="B97">
+        <v>9388</v>
+      </c>
+      <c r="C97">
+        <v>1140</v>
+      </c>
+      <c r="D97">
+        <v>2969</v>
+      </c>
+      <c r="E97">
+        <v>5301</v>
+      </c>
+      <c r="F97">
+        <v>7108</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98">
+        <v>4558</v>
+      </c>
+      <c r="B98">
+        <v>6656</v>
+      </c>
+      <c r="C98">
+        <v>8780</v>
+      </c>
+      <c r="D98">
+        <v>554</v>
+      </c>
+      <c r="E98">
+        <v>2369</v>
+      </c>
+      <c r="F98">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99">
+        <v>2380</v>
+      </c>
+      <c r="B99">
+        <v>4068</v>
+      </c>
+      <c r="C99">
+        <v>6708</v>
+      </c>
+      <c r="D99">
+        <v>8909</v>
+      </c>
+      <c r="E99">
+        <v>953</v>
+      </c>
+      <c r="F99">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100">
+        <v>1883</v>
+      </c>
+      <c r="B100">
+        <v>3692</v>
+      </c>
+      <c r="C100">
+        <v>5707</v>
+      </c>
+      <c r="D100">
+        <v>7025</v>
+      </c>
+      <c r="E100">
+        <v>667</v>
+      </c>
+      <c r="F100">
+        <v>2521</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101">
+        <v>1908</v>
+      </c>
+      <c r="B101">
+        <v>3702</v>
+      </c>
+      <c r="C101">
+        <v>5740</v>
+      </c>
+      <c r="D101">
+        <v>8329</v>
+      </c>
+      <c r="E101">
+        <v>961</v>
+      </c>
+      <c r="F101">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102">
+        <v>2070</v>
+      </c>
+      <c r="B102">
+        <v>3892</v>
+      </c>
+      <c r="C102">
+        <v>6024</v>
+      </c>
+      <c r="D102">
+        <v>9070</v>
+      </c>
+      <c r="E102">
+        <v>1766</v>
+      </c>
+      <c r="F102">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103">
+        <v>2535</v>
+      </c>
+      <c r="B103">
+        <v>4576</v>
+      </c>
+      <c r="C103">
+        <v>6966</v>
+      </c>
+      <c r="D103">
+        <v>9768</v>
+      </c>
+      <c r="E103">
+        <v>2080</v>
+      </c>
+      <c r="F103">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104">
+        <v>3490</v>
+      </c>
+      <c r="B104">
+        <v>5543</v>
+      </c>
+      <c r="C104">
+        <v>7602</v>
+      </c>
+      <c r="D104">
+        <v>971</v>
+      </c>
+      <c r="E104">
+        <v>2808</v>
+      </c>
+      <c r="F104">
+        <v>5087</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105">
+        <v>5313</v>
+      </c>
+      <c r="B105">
+        <v>7395</v>
+      </c>
+      <c r="C105">
+        <v>990</v>
+      </c>
+      <c r="D105">
+        <v>3505</v>
+      </c>
+      <c r="E105">
+        <v>5573</v>
+      </c>
+      <c r="F105">
+        <v>9094</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106">
+        <v>9794</v>
+      </c>
+      <c r="B106">
+        <v>2407</v>
+      </c>
+      <c r="C106">
+        <v>5099</v>
+      </c>
+      <c r="D106">
+        <v>6996</v>
+      </c>
+      <c r="E106">
+        <v>1004</v>
+      </c>
+      <c r="F106">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107">
+        <v>5750</v>
+      </c>
+      <c r="B107">
+        <v>9392</v>
+      </c>
+      <c r="C107">
+        <v>3514</v>
+      </c>
+      <c r="D107">
+        <v>5583</v>
+      </c>
+      <c r="E107">
+        <v>9129</v>
+      </c>
+      <c r="F107">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108">
+        <v>6720</v>
+      </c>
+      <c r="B108">
+        <v>1201</v>
+      </c>
+      <c r="C108">
+        <v>5075</v>
+      </c>
+      <c r="D108">
+        <v>7169</v>
+      </c>
+      <c r="E108">
+        <v>2540</v>
+      </c>
+      <c r="F108">
+        <v>5370</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109">
+        <v>3758</v>
+      </c>
+      <c r="B109">
+        <v>8330</v>
+      </c>
+      <c r="C109">
+        <v>3539</v>
+      </c>
+      <c r="D109">
+        <v>6733</v>
+      </c>
+      <c r="E109">
+        <v>2556</v>
+      </c>
+      <c r="F109">
+        <v>6087</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110">
+        <v>5391</v>
+      </c>
+      <c r="B110">
+        <v>1920</v>
+      </c>
+      <c r="C110">
+        <v>5506</v>
+      </c>
+      <c r="D110">
+        <v>2561</v>
+      </c>
+      <c r="E110">
+        <v>3000</v>
+      </c>
+      <c r="F110">
+        <v>6097</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111">
+        <v>4088</v>
+      </c>
+      <c r="B111">
+        <v>5108</v>
+      </c>
+      <c r="C111">
+        <v>6115</v>
+      </c>
+      <c r="D111">
+        <v>6747</v>
+      </c>
+      <c r="E111">
+        <v>8347</v>
+      </c>
+      <c r="F111">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112">
+        <v>724</v>
+      </c>
+      <c r="B112">
+        <v>3595</v>
+      </c>
+      <c r="C112">
+        <v>3809</v>
+      </c>
+      <c r="D112">
+        <v>4164</v>
+      </c>
+      <c r="E112">
+        <v>4104</v>
+      </c>
+      <c r="F112">
+        <v>5115</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113">
+        <v>5124</v>
+      </c>
+      <c r="B113">
+        <v>6197</v>
+      </c>
+      <c r="C113">
+        <v>6768</v>
+      </c>
+      <c r="D113">
+        <v>8370</v>
+      </c>
+      <c r="E113">
+        <v>3600</v>
+      </c>
+      <c r="F113">
+        <v>5146</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114">
+        <v>5188</v>
+      </c>
+      <c r="B114">
+        <v>774</v>
+      </c>
+      <c r="C114">
+        <v>7519</v>
+      </c>
+      <c r="D114">
+        <v>2185</v>
+      </c>
+      <c r="E114">
+        <v>3775</v>
+      </c>
+      <c r="F114">
+        <v>6592</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115">
+        <v>4208</v>
+      </c>
+      <c r="B115">
+        <v>7669</v>
+      </c>
+      <c r="C115">
+        <v>3694</v>
+      </c>
+      <c r="D115">
+        <v>9968</v>
+      </c>
+      <c r="E115">
+        <v>2638</v>
+      </c>
+      <c r="F115">
+        <v>9182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
